--- a/Document/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\기획서\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2913,7 +2913,7 @@
   <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3008,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="스폰 시스템" sheetId="2" r:id="rId2"/>
     <sheet name="제한 스폰" sheetId="3" r:id="rId3"/>
-    <sheet name="데이터 흐름" sheetId="4" r:id="rId4"/>
+    <sheet name="웨이브" sheetId="5" r:id="rId4"/>
+    <sheet name="무제한 스폰" sheetId="6" r:id="rId5"/>
+    <sheet name="데이터 흐름" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,10 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 특정 횟수만큼 몬스터가 계속 리스폰 되는 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 빠른 진행과 많은 대상을 처치하는 재미를 유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -329,22 +327,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 세트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,18 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 몬스터 데이터에서 몬스터 세트에 세팅된 몬스터를 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰 지점마다 받아온 몬스터 데이터 를 받아 생성 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 재스폰 시간은 Spawn_Time 에서 받음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 생성할 몬스터의 수와 종류는 미션 데이터에서 받아옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,35 +355,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전체 스폰되는 몬스터를 2분류로 나눈단위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유저가 상대해야하는 대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 임시 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터 세트에서 받아온 몬스터의 수를 저정하고 스폰지점으로 나눠 생성함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터 세트에서 5마리씩 세팅되있는 몬스터를 Monster_Spawn만큼 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터는 미리 받아생성하고 모든 스폰 지점에 순차적으로 스폰함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰지점마다 1마리씩 생성하고 재스폰 시간후 다시 생성함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +413,86 @@
   <si>
     <t>모든 몬스터 웨이브를 방어하세요.</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 개수 테이블에서 불러온다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서에 몬스터를 어떻게나눠서 소환할건지 적어야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한꺼번에 소환한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨넘어가는 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 재스폰 시간은 미션타임 테이블의 Spawn_Time 에서 받음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점마다 받아온 스폰 데이터 를 받아 생성 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 테이블에 레벨에 따라 스폰되는 몬스터를 배치, 생성함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 한 레벨에 한번 스폰하며 스폰 지점에 나눠서 스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 레벨마다 받아온 몬스터를 스폰지점마다 하나씩 배치 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 테이블의 SpawnTime에서 다음레벨로가는 시간을 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 레벨마다 한번의 스폰이 있으며 배치된 몬스터를 전부스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어미션에 사용되는 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 횟수만큼 몬스터가 계속 리스폰 되는 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 횟수만큼 여러 번 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 점점 상승하는 난이도로 성장의 재미를 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 테이블에 웨이브에 따라 스폰되는 몬스터를 배치, 생성함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 몬스터가 죽으면  SpawnTime만큼 대기하고 다음 레벨을 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -579,39 +605,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,12 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2776,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2791,7 +2785,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2799,14 +2793,14 @@
         <v>43666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6"/>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -2815,7 +2809,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2824,7 +2818,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -2833,7 +2827,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -2842,7 +2836,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -2851,7 +2845,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -2860,7 +2854,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -2869,7 +2863,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -2898,7 +2892,7 @@
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2933,12 +2927,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2948,32 +2942,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -2983,17 +2977,17 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3006,10 +3000,499 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="Q12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="Q13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3023,12 +3506,12 @@
   <sheetData>
     <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L3" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -3036,85 +3519,86 @@
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>54</v>
+        <v>113</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>55</v>
@@ -3126,7 +3610,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>56</v>
@@ -3138,7 +3622,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>57</v>
@@ -3150,87 +3634,82 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="5"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>74</v>
+      <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="L20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L21" s="6" t="s">
-        <v>10</v>
+      <c r="L21" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L22" s="12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L23" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>15</v>
@@ -3239,10 +3718,10 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L24" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>15</v>
@@ -3253,26 +3732,26 @@
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>31</v>
+      <c r="L25" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>25</v>
@@ -3281,30 +3760,24 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O28" s="6"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L29"/>
@@ -3325,9 +3798,6 @@
       <c r="O31"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -3340,72 +3810,30 @@
       <c r="O33"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="5">
-        <v>4</v>
-      </c>
-      <c r="E35" s="5"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="N35"/>
       <c r="O35"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="5">
-        <v>30</v>
-      </c>
-      <c r="E36" s="5"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="N36"/>
       <c r="O36"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="5">
-        <v>180</v>
-      </c>
-      <c r="E37" s="5"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="N37"/>
       <c r="O37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="N38"/>
-      <c r="O38"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
@@ -3471,20 +3899,25 @@
       <c r="F49" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B25:E47"/>
   <sheetViews>
@@ -3505,7 +3938,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -3554,7 +3987,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -3612,7 +4045,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -3670,7 +4103,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>

--- a/Document/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,38 +247,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미션 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 생성하는 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터의 값에 대한 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 좌표 정보와 오브젝트의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,14 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 세트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성할 몬스터를 5개 묶어 놓은 세팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 생성할 몬스터의 수와 종류는 미션 데이터에서 받아옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,14 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - 에외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 임시 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 데이터 흐름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -431,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 재스폰 시간은 미션타임 테이블의 Spawn_Time 에서 받음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -492,6 +448,169 @@
   </si>
   <si>
     <t xml:space="preserve">  - 모든 몬스터가 죽으면  SpawnTime만큼 대기하고 다음 레벨을 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생존미션에 사용되는 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 값을 일정시간동안 계속해서 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 계속해서 나오는 적을상대하면서 지속적인 긴장감있는 전투를 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점마다 받아온 스폰 데이터 를 받아 생성 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 세팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 스폰할 수 와 종류를 정해둔 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은시간에 따른 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3분~2분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2분~1분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1분~0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3레벨의 스폰 내용을 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~6레벨의 스폰 내용을 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~9레벨의 스폰 내용을 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 레벨을 몬스터 세팅으로 사용하며 생존한 시간에 따라 사용하는 레벨이 달라짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - SpawnTime만큼 대기하고 다음 레벨을 불러옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
+  </si>
+  <si>
+    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤으로 돌리는 선택된 맵의 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 단계, 세팅, 웨이브를 나타내는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 종류와 스폰수로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 무제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 데이터 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브, 무제한 스폰 내용 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 재스폰 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 흐름도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +780,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,6 +876,150 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>684019</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>187742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="7038975"/>
+          <a:ext cx="3941569" cy="7741067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45844</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>187742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="6410325"/>
+          <a:ext cx="3941569" cy="7741067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49857</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>196884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="7067550"/>
+          <a:ext cx="5983932" cy="7302534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2735,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I135"/>
+  <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2748,15 +3014,12 @@
     <col min="4" max="4" width="44.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2769,11 +3032,8 @@
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>43663</v>
       </c>
@@ -2784,101 +3044,80 @@
         <v>6</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>43666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="I8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="I12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2890,9 +3129,114 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
+    <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +3251,7 @@
   <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2927,12 +3271,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2942,32 +3286,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -2977,17 +3321,17 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3002,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3022,7 +3366,7 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3393,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>50</v>
@@ -3063,243 +3407,222 @@
         <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="N12" s="5"/>
       <c r="Q12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="5"/>
+        <v>69</v>
+      </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="5"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
+      <c r="L18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="L19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="6" t="s">
-        <v>10</v>
+      <c r="L20" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L21" s="12" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="6"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="6"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="6"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="6"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="6"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L28"/>
@@ -3314,8 +3637,6 @@
       <c r="O29"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L30"/>
-      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
     </row>
@@ -3325,8 +3646,6 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="L31"/>
-      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
     </row>
@@ -3336,19 +3655,17 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="L32"/>
-      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
+    <row r="33" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="L33"/>
-      <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
     </row>
@@ -3358,8 +3675,6 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="N34"/>
-      <c r="O34"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
@@ -3369,8 +3684,6 @@
       <c r="F35" s="15"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="N35"/>
-      <c r="O35"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
@@ -3380,8 +3693,6 @@
       <c r="F36" s="15"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="N36"/>
-      <c r="O36"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
@@ -3391,8 +3702,6 @@
       <c r="F37" s="15"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="N37"/>
-      <c r="O37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
@@ -3484,6 +3793,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3491,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3504,17 +3814,17 @@
     <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3525,9 +3835,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>49</v>
@@ -3536,9 +3846,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>50</v>
@@ -3547,231 +3857,215 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="7" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="5" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
+      <c r="L16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="L19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="6" t="s">
-        <v>10</v>
+      <c r="L20" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L21" s="12" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="6"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="6"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="6"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="6"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="6"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L28"/>
@@ -3785,51 +4079,36 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L30"/>
-      <c r="M30"/>
+    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L31"/>
-      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L32"/>
-      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L33"/>
-      <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N34"/>
-      <c r="O34"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="N35"/>
-      <c r="O35"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="N36"/>
-      <c r="O36"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="N37"/>
-      <c r="O37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J38" s="4"/>
@@ -3901,19 +4180,397 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,7 +4578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B25:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -3938,7 +4595,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -3987,7 +4644,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -4045,7 +4702,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -4103,7 +4760,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>

--- a/Document/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3346,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3801,7 +3801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -4188,7 +4188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
